--- a/dataset/哈利波特/output/角色统计/哈利波特与混血王子 第30章 角色统计.xlsx
+++ b/dataset/哈利波特/output/角色统计/哈利波特与混血王子 第30章 角色统计.xlsx
@@ -31,12 +31,12 @@
     <t>邓布利多</t>
   </si>
   <si>
+    <t>罗恩</t>
+  </si>
+  <si>
     <t>斯内普</t>
   </si>
   <si>
-    <t>罗恩</t>
-  </si>
-  <si>
     <t>卢平</t>
   </si>
   <si>
@@ -46,12 +46,12 @@
     <t>马尔福</t>
   </si>
   <si>
+    <t>纳威</t>
+  </si>
+  <si>
     <t>韦斯莱</t>
   </si>
   <si>
-    <t>纳威</t>
-  </si>
-  <si>
     <t>赫敏</t>
   </si>
   <si>
@@ -61,6 +61,9 @@
     <t>芙蓉</t>
   </si>
   <si>
+    <t>斯普劳特</t>
+  </si>
+  <si>
     <t>亚瑟</t>
   </si>
   <si>
@@ -70,7 +73,7 @@
     <t>莱姆斯</t>
   </si>
   <si>
-    <t>斯普劳特</t>
+    <t>波特</t>
   </si>
   <si>
     <t>皮皮鬼</t>
@@ -80,9 +83,6 @@
   </si>
   <si>
     <t>伏地魔</t>
-  </si>
-  <si>
-    <t>波特</t>
   </si>
   <si>
     <t>小天狼星</t>
@@ -498,7 +498,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -608,18 +608,18 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -641,18 +641,18 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -674,7 +674,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
